--- a/equal-costs_grid-topology_multiple-dest_49-100-225-400-nodes.xlsx
+++ b/equal-costs_grid-topology_multiple-dest_49-100-225-400-nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2B76FF7-5000-44A6-93F6-460E8FBFB799}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5E5CAA3-7173-46E3-9430-15D4AD950DA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -225,6 +222,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,12 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,50 +751,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>269466</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>157404</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817BD755-ACC6-4629-8DE1-7BBA566332DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="613833" y="3598333"/>
-          <a:ext cx="4566300" cy="3036071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -823,7 +776,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -867,7 +820,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -911,7 +864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -928,85 +881,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269466</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D4AC67-6395-45E6-A13E-2AEA47BF46AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613833" y="3598333"/>
+          <a:ext cx="4566300" cy="3036071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="n=49-100-225-400;mesmo-dest"/>
-      <sheetName val="n=49-100-225-400;r=80;ordest-qq"/>
-      <sheetName val="Planilha1"/>
-      <sheetName val="Planilha2"/>
-      <sheetName val="Planilha3"/>
-      <sheetName val="Planilha4"/>
-      <sheetName val="Planilha5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="454">
-          <cell r="P454" t="str">
-            <v>n=49</v>
-          </cell>
-          <cell r="Q454" t="str">
-            <v>n=100</v>
-          </cell>
-          <cell r="R454" t="str">
-            <v>n=225</v>
-          </cell>
-          <cell r="S454" t="str">
-            <v>n=400</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="R455">
-            <v>0.44</v>
-          </cell>
-          <cell r="S455">
-            <v>0.81</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="P456">
-            <v>0.64</v>
-          </cell>
-          <cell r="Q456">
-            <v>0.97</v>
-          </cell>
-          <cell r="R456">
-            <v>1</v>
-          </cell>
-          <cell r="S456">
-            <v>0.98000000000000009</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="P457">
-            <v>0.96</v>
-          </cell>
-          <cell r="Q457">
-            <v>1</v>
-          </cell>
-          <cell r="S457">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="P458">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1309,7 +1228,7 @@
   <dimension ref="A1:AJ102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="L3" sqref="L3:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,55 +1245,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="N1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="N1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="W1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10" t="s">
+      <c r="T1" s="13"/>
+      <c r="W1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AC1" s="11" t="s">
+      <c r="Z1" s="12"/>
+      <c r="AC1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AG1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10" t="s">
+      <c r="AD1" s="13"/>
+      <c r="AG1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="10"/>
+      <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1401,7 +1320,7 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
@@ -11796,7 +11715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C859F16-8618-4D31-8E82-32E889437E3C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
